--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1197">
   <si>
     <t>zh_CN</t>
   </si>
@@ -1228,6 +1228,2398 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ピピピピ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バシッ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あぁもう……うっさいなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイビス、早く起きろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんで返事しねぇんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]まさか起きたくないとか考えてるんじゃないよな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]巡回診療に行くから早めに起こしてって、昨夜メッセージ送ってきたのはオマエだろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]それでせっかく人が早起きして起こしてやったのに、当の本人は起きねぇってのかよ。ふぁーあ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はぁ……寝たいんなら寝てろ、アタシは顔洗ってくる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイビス、いつまで寝てるんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]起きろって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アタシも外勤から帰ってきたばっかなんだぞ。今回の任務はかなりキツくて、アタシ以外に対応できるヤツはほとんどいなかったからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アーミヤが数日休みをくれたから、本当なら一日中寝られたのに。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]オマエを起こすためにわざわざ一、二時間寝ただけで起きてやったんだからな。ふぁーあ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]本当に起きないのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]だったら実力行使させてもらうぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]昨夜オマエが自分で言ったんだからな。自分はもう医療部の精鋭の一人だから、絶対に遅刻できない、引きずってでも起こせって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]まぁそんなふうに言ってきたのは何度もあったけどさ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]でも本当にオマエを布団から引っ張り出すなんて初めてだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]フフン。もしアタシがいなかったら、オマエどうするつもりだったんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]まだ起きないのか？　本当に布団をめくるからな！　風邪ひいてもアタシのせいにするなよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ど、どうしたハイビス！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]手がめちゃくちゃ熱いぞ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイビス……姉ちゃん！　冗談やめろよ、オマエいつも健康だろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]どうして急に……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]姉ちゃん、姉ちゃん、何か言えよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]起きたよ……ラヴァちゃん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]揺すらないで……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あっ、ご、ごめん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]大丈夫か？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ちょっと寒い……力も入らない……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]多分、熱があるんだと思う……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]熱って……オマエが熱出すことなんてあるのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あっ！　そんなこと言ってる場合じゃない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ちょっと待ってろ、すぐに医者を呼んでくる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]大丈夫……大したことないよ、ラヴァちゃん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]はぁ……あの子ったらもう……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">十分後
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイビス、医者を連れて来たぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アンセル、早く診てくれ！　ハイビスは大丈夫なのか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]ちょ、ちょっと！　そんなに慌てないでください。うわっ！　引っ張らないで――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]まったく……すごい勢いで連れ出されたから何事かと思ったら、あなたのお姉さんが病気だったんですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私はだい……じょうぶ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]病人には「大丈夫」なんて言う資格はありませんよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]うーん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]体温計はありますか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あ、あると思う！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]救急箱の中に……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]すぐ取ってくる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]症状はどんな具合ですか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ただの……熱です……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]うーむ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]やはりちょっと体温が高いですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]体に力が入らない、そうでしょう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]はい……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">救急箱は？　確かここにあったはずだぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]ここ数日の食事や生活に問題はありませんでしたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]健……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]健康食ですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]いいです、今の質問はなかったことにしましょう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]あなたやフォリニックさんは、この手の心配をする必要のない人たちでしたね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]恐らくここ最近の疲労が蓄積していたのでしょう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見つけた！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]アンセルさん……一応検査を……お願いしてもいいですか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]そうすればあの子も……少しは安心すると思いますから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]わかりました。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ほら、体温計だ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]救急箱ごと持ってきてください。そうすればハイビスさんに基本的な検査を一通りしてあげられます。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]ハイビスさんの救急箱なら、必要な器具は揃っているはずです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]わかった！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]十分なデータが取れれば、この熱が身体の防衛メカニズムによるものか、それとも別の病気が引き起こした合併症なのかが判断できます。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]まずは体温からです。さぁ、口を開けてください。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]あーん――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ど、どうだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]大したことはありませんよ。身体が自律的に調整を行っただけで、今回はそれが少し激しかったようですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]過労が主な原因です。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]数日の間ゆっくり休めば、すぐに良くなりますよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]あっさり目の食事で、塩分や糖分を控え、栄養バランスに注意してください。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アタシが健康食を作れってことか……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]いえいえ。食堂でもそういったメニューは提供されてますので、必ずしも自分で作らなければならないというわけではありません。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]他のことについてはハイビスさんがご自分でわかってますから、この辺にしておきましょう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]医療部の方には私が代わりに病欠と伝えておきますね。フェンさんにも言っておきます。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]お二人はこれから数日、外勤やその他の任務はありませんよね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ありません……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]じゃあ特に問題ありませんね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンセル"]他に聞きたいことがなければ、私はもう行きますね。ハイビスさんの看病は任せましたよ、ラヴァさん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はぁ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]数日間、オマエを看病するのか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]あの……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アタシは看護なんて学んだことないぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ラヴァちゃん……訓練に行くなら……行っていいから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]お姉ちゃんは……お医者さんだし……心配いらないよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]自分の面倒は……自分で見られるから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ゴホッ、ゴホゴホッ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あんまり喋るな！　喉は痛くないか？　水飲むか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]大丈夫……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]つまり……えーっと、違うんだ！　アタシはオマエの看病をしたくないって言ったわけじゃない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]その、あれだ……ア、アタシそういうのやったことないから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]もしアタシが何かミスって、嫌だって感じたら……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]遠慮なく言ってくれよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ラヴァちゃん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]わかった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]よし！　じゃあまずは、朝ご飯でも食べるか……アタシが作るよ、洗い物もするから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]食欲はあるか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]よし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]じゃあとりあえず洗面器持ってくるから、顔洗って歯磨いてくれ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]（うなずく）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ちょっと待ってろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]（ラヴァの服の裾を引っ張る）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あん？　他に何かあるのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]（ありがとうと口を動かす）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]礼なんていらない。オマエが病気になったお陰で、アタシは余計に休めるんだ。儲けもんだろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">えーっと、洗面器はどこにやったっけな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はぁ……ようやく終わった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]看病って大変だな。なんかダサいし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]みんなの前でこんなことしなきゃいけなくなったら、アタシは絶対拒否るね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]お腹いっぱいになったか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]じゃ、もう寝てな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]目を閉じて、ゆっくり休めよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アタシは洗面器と食器を洗って、それから――何すりゃいいんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はぁ……まぁ、とりあえずはこんなとこかな。もし何かあったら、この目覚まし時計を鳴らせ。音が聞こえたらすぐに来るから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ちゃんと言うこと聞けよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ハイビスカスの頬をポンポン叩く）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]んーと……ブラシに、あとは洗剤。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（アタシさっき、ハイビスの頬をポンポンしたのか？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お父さんとお母さんは、いつもお前たちを想ってるからね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たくさん連絡するんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">言うこと聞くんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]フンッ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（父さんと母さんは、よくアタシたちにああやってたもんな。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（先週送った手紙はもう届いてるかな。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（あ……ハイビスもアタシに同じように接してるのか……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ちゃんと健康食を食べてね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]言うこと聞くんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（うーん……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（まあアイツの場合は、ほとんどがアタシに対する命令だけど。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（さっきの肉粥、あれで本当にお腹いっぱいになったのか？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（何か果物でも切ってあげた方がいいのか？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（それとも肉か？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（アイツのベッドの前で焼き肉をやりたい気もする。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（飯テロだ。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（やっぱり果物切ってやるか……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なぁ、果物切ってきたけど、食べるか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]スゥ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]よく寝てるな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]コイツの寝てる姿はそんなにムカつかないな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ハイビスカスの頬をつまむ）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]グゥ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]まだ熱い……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]早く良くなれよ。でないと安心してイタズラもできない……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ふぁーあ……半日動き回ったから、アタシも少し疲れてきた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]コイツのそばで一眠りするか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]グゥ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ん！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]起こしちゃった？　ごめんね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ラヴァちゃん用に作ってたお粥のタイマーが鳴っちゃった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アタシは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]今食べる？　それともあとにする？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]今食べる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]自分でやる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ちょちょちょ！　起きちゃダメだって、昨日一日ダウンしてたのにもう動き回る気？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]寝・て・な・さ・い。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]うぐっ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ハイビスの奴、いつの間にこんなに力が強くなったんだ？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私聞いたよ。Pithさんの特訓でそうなったんでしょ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]Pith先生が悪いんじゃない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]元々ハイレベルな訓練なんだ。最初は結構過酷に感じるけど、でも何事も初めは難しいもんだろ。慣れれば大丈夫だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]だとしても、あそこまでボロボロになるなんて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]でもそれだけの価値はある。ああいう訓練を繰り返すと、自分が強くなってるのが分かるんだ。アーツの精度とか……色々な。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]それに……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]それに？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]特訓前に初めから言われてたんだ。今回はレベルの高い訓練で過酷なものになるから、心の準備はしとくようにって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]だからアタシは教官たちにこう言ってやった。「大丈夫、アタシの姉ちゃんは医療オペレーターだから。たとえ死にかけても、ほんの少しでも息があれば姉ちゃんが助けてくれる」って。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]そういうことだ、まぁ察してくれよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ラヴァちゃん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]今回はいい。でももし今後、ラヴァちゃんが特訓後に今回みたいな状態になってたら、私は正式に人事部に異議を申し立てるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]そこまでしなくたって――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]その訓練でどれだけラヴァちゃんが強くなろうと関係ない……私はただ、ラヴァちゃんの身体が心配なの。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]とても……心配なの。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ごめんね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイビス？　姉ちゃん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]な、泣くなよ。子供じゃあるまいし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私がラヴァちゃんを見つけた時どれだけ心配したかわかってる！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]でも大丈夫だっただろ……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ちょっとヘトヘトになって、かすり傷を負っただけだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]違う、今回のことじゃなくて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ラヴァちゃん、自分がどうやってロドスに来たか覚えてる……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]それは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]道で商人たちの代わりに盗賊をやっつけて、その時に感染者であることがバレた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]その後、キャラバンに置いてかれて最後尾で戦うことになって……確かあの時は誰かに頭を殴られて、気絶したんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]そして、目が覚めた時にはロドスにいた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]怪我も誰かが治してくれてた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]外勤に出てたオペレーターが、帰るついでにアタシを拾ったって話だろ？　大した怪我じゃなくてよかった、周りにもそんな迷惑かけなくてさ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]重傷だったんだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]えっ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]離れ離れになった後も、またそのうちいつもと同じ、ひねくれ者のラヴァちゃんに会えると思ってた。でも……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]再会したラヴァちゃんは手術台の上に寝てて、ひどい熱で……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]でも私は、何もできなくて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私が唯一できたのは、手術後の看病だけ……今みたいに。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]あの時も、ラヴァちゃんはベッドの上で眠ったままずっと私の名前を呼んでた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんだって？　待てよ、そんな話今まで一度も……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ど、どうして言わなかったんだ――！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]それは、ラヴァちゃんがひねくれ者で、まともに話を聞かないってことを知ってたからだよ。やっとラヴァちゃんに会えたのに、もしその話をしてまた逃げられたらどうしようって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]だから、ラヴァちゃんが意識を取り戻してからロドスに正式加入するまで、私はずっと姿を見せなかったんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]はぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]いくらアタシだって、そこまでひねくれてるわけないだろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]そこまでひねくれてるんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私たちがヴィクトリアを離れた時だって、ラヴァちゃんが拗ねて、はぐれちゃったんでしょ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あれは、事故だったんだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]とにかく、あんなことになるのはもう許さないからね、わかった？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（小声）わかったよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]うん、いい子。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]あっそうだ。さっきはどんな夢見てたの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]嫌じゃなければ、どんな夢だったかお姉ちゃんに教えてくれる？　そうすれば気持ちもリフレッシュできるはずだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]え？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]さ、言ってみて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ア……アタシが見た夢は……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ラヴァちゃんが見た夢は？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイビスが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私が、どうしたの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]うん、言って。聞いてるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]（ラヴァの頬をポンポン叩く）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……うん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]早く言って、一体どんな夢を見たの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ダメだ、恥ずかしすぎて言えない！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]見てない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]何も見てない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ちゃんと言うこと聞いて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]聞かない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]夢なんて見てない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ラヴァちゃん、起きたそばからどうして拗ねちゃうの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]拗ねるのはいつものことだけど、顔が赤いのはどうして？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]もしかしてまた熱でもあるの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]いい子にして横になって、体温測ってあげるから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんで体温なんか測るんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]体温計を持ってくるな、熱なんてない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]病人には「大丈夫」なんて言う資格はないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]顔が赤くなってるのと発熱の区別もつかないのかよオマエは！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]どうしてお姉ちゃんを見て顔を赤くするの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]そ、それはオマエが夢の中で病気になって、話す元気すらなくて、アタシが看病をしてたんだよ。それをオマエに言ったら恥ずいからに決まってるだろ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あっ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]つまり……そんなカンジの夢だ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]へへ、なんだか嬉しいな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]だってハイビスは……姉ちゃんはいつも……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私はそう簡単に倒れないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]でも予想外のことは避けられないもんね。だから今後もしかしたら本当にラヴァちゃんの看病が必要になることがあるかも。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]もちろん、お姉ちゃんが危ない時はラヴァちゃんが助けてくれるって信じてるけどね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]普段は言うこと聞かないし、意地っ張りだし、文句ばかり多くて、考えなしに行動するけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]遠回しにアタシの悪口言ってんのか……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]そうじゃないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハァ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]まぁいい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]何か食べるモンないか？　少し腹減った。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]あ、あるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]わぁ、ラヴァちゃんがこんなに素直だなんて珍しい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ちょっと待ってて、すぐ持ってくるから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（あの時、姉ちゃんもいたのか。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（道理で聞き覚えのある声がすると思ってたんだ。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（もしヨハン先生がいなかったら、アタシはきっとハイビスに会えなかっただろうな……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（先生はリターニアで元気にやってるだろうか。あれだけ才能のある音楽家だし、きっともう有名になってるだろうな。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（手紙……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（父さんと母さんはいつ手紙の返事をくれるだろうか……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（みんな……大変な中で生きてるんだ……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（アタシがもっと強くなれたら……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]はいどーぞ、出来立てほやほやのお粥だよ、熱いうちに食べてね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（くんくん）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]何の香りもしないけど、肉粥じゃないのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]それはラヴァちゃんの夢の中のお話でしょ？　これは新しく開発した健康粥だよ。美味しくてヘルシーなんだから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（健康！？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]待て！　オマエまさか自分で作ったあの健康パウダーとかいうのをお粥に入れたんじゃないだろうな！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ピンポーン！　その方が吸収が良くなって栄養を素早く取り込めるでしょ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]まず聞いてもいいか……オマエ自分で食べたことあんのか……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]もっちろ～ん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]お姉ちゃんは一日三食これを食べてるよ。栄養バランスがとってもいいからね。だから病気になるとしたら、お姉ちゃんじゃなくてラヴァちゃんなんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ほら食べて、健康が一番大事だよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]嫌だ、一口だって口に入れるもんか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]頑張って改良したやつなんだから、食べてよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]そんなの信じられるか！　前回改良したって言ってたやつだって、結局――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]えいっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]うぐっ！！！！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あれ、意外と、イケる？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]でしょ～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]うーん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]！？！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]うっ、ダメだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]いやいや、口に残るこの味、いったいどうなってるんだよ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]おえっ！　改良したってオマエ……これ後から不味さが一気に来るようになっただけじゃないか！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]そうだよ。そうすれば一気に食べるしかなくなるでしょ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ハイビス！　オマエ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]おえぇ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]覚えてろよ、オマエ……おえっ……許さないからな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tick—tick—tick—tick—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bang.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Augh... shut up...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus, time to get up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You're not even gonna answer?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]No way you're thinking of lying in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You sent me a message yesterday saying you were making rounds or something. That I should wake you up in the morning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And here I am awake, and you're still sleeping. Haaah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Eh, sleep in all you want. I'm gonna go rinse up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus, you're still sleeping?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Wanna get up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I just got back from field work myself. The mission wasn't easy. A huge hassle, actually. Not many people other than me could deal with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And Amiya gave me a hell of a lot of off days for it, so now I can sleep in for the whole day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]If I wasn't getting you up, I could've gotten a lot more sleep. Haaah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Still asleep?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Then I've got to do something or other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You said yourself last night, you were one of the Medical Department's elite at this point. You can't be late. I'll drag you out if I have to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Though saying that isn't a first for me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]But having the chance to actually drag you out from your covers would be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hm-hmmm. What in the world would you do without me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Still not getting up? I'm seriously gonna pull 'em. If you catch a cold, don't blame me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibi—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus, what—what's up with you?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Why are your hands so hot?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus? Sis? Don't kid me like this. Haven't you always been pretty healthy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Why would you just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Sis! Sis! Say something!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I'm awake... Lava...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Stop shaking me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Oh, s—sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Are you okay?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]A little chilly... and weak...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Probably caught a fever...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Fever? Your body can do that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Oh, right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Just wait for me a moment, I'll go and find a doctor for you right now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It's no big deal... Lava, you don't need to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Oh... honestly, you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ten minutes later...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus, I found a doctor for you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Ansel, you need to take a look quick! Is she alright?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Wait, calm down—ack, stop pulling me like that—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Good grief... I thought you had something urgent you needed to drag me out for. I see it was your sister.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It's n... nothing...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]The sick aren't qualified to say it's 'nothing.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Hmm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Do you have a thermometer in your dormitory?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]We—We do!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]In our household medicine box...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I'll go and get it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Don't rush.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It's just... a fever...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Hrmm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Temperature's a little high.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]And you're unable to exert strength?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Mm-hm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine box! Come on! I remember it was here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Have your diet and work-rest balance been fine these past few days?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Health...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Healthy meals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Okay, forget I ever asked.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]You and Folinic are both the type that don't call for worrying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]You've likely been too exhausted as of recent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Do the necessary... tests too... in a bit, please...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]That way she can... feel a little calmer...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]I understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Here, the thermometer!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Please bring the whole chest over. I can administer Hibiscus all the fundamental tests that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]A medical kit of hers should contain the necessary equipment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Got it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]With sufficient supporting data, I'll be able to discern whether her high temperature is a protective bodily response, or whether some other symptom has had knock-on complications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]We'll start with temperature. Here, open wide.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Aaah—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]H—How is she?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]No great cause for worry. Her body is just self-regulating somewhat aggressively.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Overexhaustion should be the main cause.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]As long as she rests up for the next few days, she'll be back again in no time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]She'll want a bit of a lighter diet, reduced salt and sugar intake, and to pay mind to balanced nutrition.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]So you're saying I've gotta make healthy meals for her...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]The cafeteria can provide similar meals. You might not necessarily have to make them yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]As for other major points, Hibiscus knows more than well enough, so I won't go listing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]I'll file Hibiscus' sick leave for her at the Medical Department. Fang will tell the others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]The both of you shouldn't have any field work or missions lined up for the next couple of days, correct.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I don't, no.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]None...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]Then there shouldn't be any problem.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]If you don't have any particular questions, then I'll be on my way. I'll leave you to watch over her, Lava.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hey—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]So I gotta look after you for a day or two, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Ah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I never took any sort of nursing class.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Lava... if you want to train... go train...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Your sister's... a doctor... she's not that weak...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]She can look after... herself...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]*Cough*, *cough* *cough*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]That's enough out of you! Does your throat hurt? Do you need some water?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It's okay...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Look, I, uh, I wasn't—I'm not saying I don't wanna look after you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]It's just, that, I, I don't really have experience...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]So if I get any part wrong. If you're uncomfortable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Then tell me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Lava...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Okay...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Then we're doing this. You need to eat breakfast first. I'll go make some in a moment. I'll do the dishes after we're done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Is your appetite gonna be a problem?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It won't...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hmm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Want me to get a washbowl first, then, so you can wash your face and stuff?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"](Nods)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Just give me a moment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"](Pulls at a corner of Lava's hem)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Oh. Is there anything else?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"](Mouths a 'thank you')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Nothing to thank me for. You got ill. I'm off for a couple days. It pretty much works out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh, where'd that washbowl from before go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Phew... finally, all done...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Jeez, nursing's rougher than I thought. I don't feel cool at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]If you asked me to do this in front of everyone else, I'd refuse point blank.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Are you full?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Then you can go back to sleep now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Close your eyes, and get some proper rest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I'll wash out the bowl, and then I'll go do the dishes, and then—not sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Eh, anyhow, for now that's that. If you need anything, set the alarm on this clock to go off. I'll come right over when I hear it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Be good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Pats Hibiscus's face)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Mmnn... brush, washing-up liquid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Did I give Hibiscus's face a pat just then?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mum and dad'll miss you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't forget to write to us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hmph...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Mum and dad love treating us like that.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Not sure if they've gotten the letter from last week yet.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Mm... is that how Hibiscus treats me too?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]You need to eat healthy meals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Be good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Ugh...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Whenever she acts like that, chances are she's trying to boss me around.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](......)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](I don't know if that one bowl of meat porridge was enough to fill her.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Should I peel her a piece of fruit too?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Or maybe roast some meat?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](I really wanna set up a stove right by her bed and barbecue meat for myself.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Make her starve drooling.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Let's go with peeling fruit, yeah...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I sliced some fruit for you. Do you want it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Zzz...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Sleeping pretty heavy, huh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Weird, actually, how she doesn't look all that loathsome when she's asleep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Pinches Hibiscus's face)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Still running high.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hope she'll recover a little soon. That way I can prank her with a completely clean conscience.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Haaah... I've been busy half the day. I'm a little tired myself now...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Guess I can nap a little by her side...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Zzz...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Huh?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Did that wake you up? Sorry...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It's the alarm I set for your porridge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Do you want it right now, or in a bit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Now, I guess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Lemme get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Ah-ah-ah, don't get up. You knocked out all the way from yesterday to today and now you want to be up and about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Lie—down—for—me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Weagh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](When did Hibiscus get this strong?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I asked around a little. It was Pith who got you into this state after taking you out for special training.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]This isn't Miss Pith's fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]This was going to be a high-intensity training session, anyway. It might look pretty ruthless at first, but nothing ever starts smooth. I'll be fine after I'm used to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Still, you can't wreck yourself with training like this...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I think it's worth it. I can feel how I'm getting stronger, Originium Arts precision or otherwise, training like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Besides...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Besides?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I was warned about this training, going into it. It'd be majorly intense, it'd be tough making it through and I'd need a good mentality and so on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I told the instructors: 'It's fine. My sister's a medic. Even if I end up half dead, as long as I still have breath in me, she'll bring me back.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]More or less how it went. You get the idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Lava.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I'll overlook it this time, but if you end up like this after special training again, I'll officially raise dissent with the HR department.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You don't need to—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I don't care what kind of improvement you might get out of this. It only matters to me whether this is going to damage your health.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]No matter what, you can't...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I'm sorry...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus? Sis?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Don't—don't cry. C'mon, look at how big you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Do you know how worried I was when I found you?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I'm alright, aren't I...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Just a little overdraft on my strength. And a few grazes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]No, not this...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Do you still remember... how you ended up at Rhodes Island...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]That...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I helped a bunch of merchants repel some bandits, and someone noticed I was an Infected...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Then their caravan dumped me... and I remember someone or other bashed my head in. Then I passed out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And when I woke up again, I was aboard Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And somebody'd healed my injuries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I heard an operator in the field picked me up on the way back? Lucky thing I was only minorly injured. Wasn't much trouble for others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]They were heavy injuries...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I thought, after I lost touch with you, the next time we met, you'd still be the same awkward you, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Then you were on the operating table, Lava—burnt up like a fireball...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I couldn't... do anything to help...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]The only thing I could do was—attend to you after the operation... just like now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]You were—crying my name, non-stop, in your bed...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What? Wait, I never heard about this before...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Then—Then why didn't you tell me—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Because I knew you'd act out if you got awkward! It was so tough just finding you. What if you just ran away again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]So before you recovered and officially came on board, I didn't even dare show up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Ugh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I'm not—I'm not that unreasonable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Of course you are!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]You got lost when we left Victoria BECAUSE you were being so difficult, Lava!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]That—That was an accident...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]In any case, you can't let anything like this happen again. Do you understand?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Quietly) Okay...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Mm-hm. There's a good girl.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Oh, that's right. What were you dreaming about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]If you don't mind, you're safe to share some of your dreams with your sister. It'll be good for your recuperation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Mm-hm. I'm listening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I... I saw...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]What did you see?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I saw you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Was there anything about me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You were...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Go on. I'm listening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"](Pats Lava's face)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hmuh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Go on, then. What did you dream of?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](I can't, this is too embarrassing! I can't say it!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Nothing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Nothing at all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I won't!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I didn't have a single dream!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]How can you be so difficult right after waking up, Lava?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]*Sigh*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Being difficult isn't anything new. Why is your face so red, though?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Did you manage to get a fever too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Nope!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Just lie down now, and I'll take your temperature.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What do you need my temperature for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Don't bring the thermometer over, I don't have a fever! It's nothing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]The sick aren't qualified to say it's 'nothing.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Can't you tell the difference between a fever and blushing?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Why would I be making you blush?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Be—Because it'd be so embarrassing having to tell you how you were so ill in my dream you couldn't even speak, duh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Uh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]That's more... or less how it went...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Heheh. Hearing that actually makes me pretty happy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]It's because usually... like, sis, you're...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I'd never be taken out that easily.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Mm, but it's always hard to expect the unexpected. So in future, I really might need you to look after me, Lava.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Of course, I've always believed you'll be there to help your sister out in bad times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Even if you usually never listen and you're always so obstinate, you have plenty of ideas, and you're always fast to act.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Is this just a really roundabout way of criticizing me...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It isn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]*Sigh*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Do you have anything to eat? I'm a little hungry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Yep, I do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]This is wonderful. It's not everyday we can get along so well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Just wait a moment. I'll bring it over for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](So back then, she was there too, huh.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](I wondered why there was a voice that sounded so familiar.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](If not for Mr. Johann teaching me, Hibiscus wouldn't have seen me again...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](I've got no idea how he's doing these days in Leithania. Someone as talented at music as him probably got famous by now.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Maybe a letter...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](I don't know when mum and dad'll send a reply...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Everyone's... going through really rough times...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](If I could just be more powerful, then...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Here we go, now. Here's some porridge, fresh off the flame. Eat it while it's hot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Sniffs it)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]It doesn't really smell like anything. Isn't it meat porridge?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]In your dreams, it was. This is cutting-edge healthy porridge. Healthy AND tasty!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Healthy?!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You—wait, hold on, did you put in that weird healthy powder or whatever it was you made?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]That's right. It'll be easier to absorb, and faster to deliver nutrients to your body.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Let me just ask, first... have you tasted it yourself...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Of course I have~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I eat three square meals a day, and my nutrition's especially well-balanced. That's why it's you who gets ill and not your sister, you know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Here, try it. Healthiness is the most important thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I don't wanna. I'm not gonna have a single spoonful.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I went to a lot of pains improving it. Just give it a try.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Like I'm gonna trust you! You said you improved it last time, and it still wasn't—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Wmmhphh!!!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Mmph?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]It's like it... tastes... kind of tolerable now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Riiight~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Mm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]?!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Eugh, no.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Nononono, what's up with this aftertaste?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Urp—don't tell me you just delayed the taste and called that better!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]That's right. You can drink all the porridge in one gulp now, can't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus, we are NOT done!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Bleuch...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Mark my words! I am... eugh... NOT done with you!
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">띠띠띠띠——
 </t>
   </si>
@@ -2280,7 +4672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"](존 선생님이 아니었으면 히비스가 날 못 봤을 거야……)
+    <t xml:space="preserve">[name="라바"](요한 선생님이 아니었으면 히비스가 날 못 봤을 거야……)
 </t>
   </si>
   <si>
@@ -2788,13 +5180,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2802,13 +5194,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2816,13 +5208,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2830,13 +5222,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>603</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2844,13 +5236,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>604</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2858,13 +5250,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>605</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2886,13 +5278,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>606</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2900,13 +5292,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>607</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>907</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2928,13 +5320,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>608</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2942,13 +5334,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>609</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2956,13 +5348,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>610</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>910</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2984,13 +5376,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>611</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2998,13 +5390,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>612</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3012,13 +5404,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>613</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3040,13 +5432,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>614</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>914</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3054,13 +5446,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>615</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3068,13 +5460,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>616</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3096,13 +5488,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>617</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>917</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3110,13 +5502,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>618</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3124,13 +5516,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>619</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>919</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3138,13 +5530,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>620</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>920</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3152,13 +5544,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>621</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>921</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3166,13 +5558,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>622</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3180,13 +5572,13 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>623</v>
       </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3194,13 +5586,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>624</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3208,13 +5600,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>625</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3222,13 +5614,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>626</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
+        <v>926</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3236,13 +5628,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>329</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>627</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>927</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3250,13 +5642,13 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>928</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3264,13 +5656,13 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>629</v>
       </c>
       <c r="D36" t="s">
-        <v>331</v>
+        <v>929</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3278,13 +5670,13 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>630</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>930</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3292,13 +5684,13 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>631</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3306,13 +5698,13 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>632</v>
       </c>
       <c r="D39" t="s">
-        <v>334</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3320,13 +5712,13 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>633</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>933</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3334,13 +5726,13 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>634</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>934</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3348,13 +5740,13 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>635</v>
       </c>
       <c r="D42" t="s">
-        <v>337</v>
+        <v>935</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3362,13 +5754,13 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>636</v>
       </c>
       <c r="D43" t="s">
-        <v>338</v>
+        <v>936</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3376,13 +5768,13 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>637</v>
       </c>
       <c r="D44" t="s">
-        <v>339</v>
+        <v>937</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3390,13 +5782,13 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>638</v>
       </c>
       <c r="D45" t="s">
-        <v>340</v>
+        <v>938</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3404,13 +5796,13 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="D46" t="s">
-        <v>341</v>
+        <v>939</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3418,13 +5810,13 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>640</v>
       </c>
       <c r="D47" t="s">
-        <v>342</v>
+        <v>940</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3432,13 +5824,13 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>641</v>
       </c>
       <c r="D48" t="s">
-        <v>343</v>
+        <v>941</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3446,13 +5838,13 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>642</v>
       </c>
       <c r="D49" t="s">
-        <v>344</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3460,13 +5852,13 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>643</v>
       </c>
       <c r="D50" t="s">
-        <v>345</v>
+        <v>943</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3474,13 +5866,13 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>644</v>
       </c>
       <c r="D51" t="s">
-        <v>346</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3488,13 +5880,13 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>645</v>
       </c>
       <c r="D52" t="s">
-        <v>347</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3502,13 +5894,13 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>646</v>
       </c>
       <c r="D53" t="s">
-        <v>348</v>
+        <v>946</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3516,13 +5908,13 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>647</v>
       </c>
       <c r="D54" t="s">
-        <v>349</v>
+        <v>947</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3530,13 +5922,13 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>648</v>
       </c>
       <c r="D55" t="s">
-        <v>350</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3544,13 +5936,13 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>649</v>
       </c>
       <c r="D56" t="s">
-        <v>351</v>
+        <v>949</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3558,13 +5950,13 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>352</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>650</v>
       </c>
       <c r="D57" t="s">
-        <v>352</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3572,13 +5964,13 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>353</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>651</v>
       </c>
       <c r="D58" t="s">
-        <v>353</v>
+        <v>951</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3586,13 +5978,13 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>652</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>952</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3600,13 +5992,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>355</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>653</v>
       </c>
       <c r="D60" t="s">
-        <v>355</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3614,13 +6006,13 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>654</v>
       </c>
       <c r="D61" t="s">
-        <v>356</v>
+        <v>954</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3628,13 +6020,13 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>655</v>
       </c>
       <c r="D62" t="s">
-        <v>357</v>
+        <v>955</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3642,13 +6034,13 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>656</v>
       </c>
       <c r="D63" t="s">
-        <v>358</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3656,13 +6048,13 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>657</v>
       </c>
       <c r="D64" t="s">
-        <v>359</v>
+        <v>957</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3670,13 +6062,13 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>658</v>
       </c>
       <c r="D65" t="s">
-        <v>360</v>
+        <v>958</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3684,13 +6076,13 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>659</v>
       </c>
       <c r="D66" t="s">
-        <v>361</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3698,13 +6090,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>362</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>660</v>
       </c>
       <c r="D67" t="s">
-        <v>362</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3712,13 +6104,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>661</v>
       </c>
       <c r="D68" t="s">
-        <v>363</v>
+        <v>961</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3726,13 +6118,13 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>662</v>
       </c>
       <c r="D69" t="s">
-        <v>364</v>
+        <v>962</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3740,13 +6132,13 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="D70" t="s">
-        <v>365</v>
+        <v>963</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3754,13 +6146,13 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>366</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>664</v>
       </c>
       <c r="D71" t="s">
-        <v>366</v>
+        <v>964</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3768,13 +6160,13 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>665</v>
       </c>
       <c r="D72" t="s">
-        <v>367</v>
+        <v>965</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3782,13 +6174,13 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>666</v>
       </c>
       <c r="D73" t="s">
-        <v>368</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3796,13 +6188,13 @@
         <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D74" t="s">
-        <v>330</v>
+        <v>928</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3810,13 +6202,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>667</v>
       </c>
       <c r="D75" t="s">
-        <v>369</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3824,13 +6216,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>668</v>
       </c>
       <c r="D76" t="s">
-        <v>370</v>
+        <v>968</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3838,13 +6230,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>371</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>669</v>
       </c>
       <c r="D77" t="s">
-        <v>371</v>
+        <v>969</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3852,13 +6244,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>670</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>970</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3866,13 +6258,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>671</v>
       </c>
       <c r="D79" t="s">
-        <v>373</v>
+        <v>971</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3880,13 +6272,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>672</v>
       </c>
       <c r="D80" t="s">
-        <v>374</v>
+        <v>972</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3894,13 +6286,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>673</v>
       </c>
       <c r="D81" t="s">
-        <v>375</v>
+        <v>973</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3908,13 +6300,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>674</v>
       </c>
       <c r="D82" t="s">
-        <v>376</v>
+        <v>974</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3922,13 +6314,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>675</v>
       </c>
       <c r="D83" t="s">
-        <v>377</v>
+        <v>975</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3936,13 +6328,13 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>676</v>
       </c>
       <c r="D84" t="s">
-        <v>378</v>
+        <v>976</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3950,13 +6342,13 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>677</v>
       </c>
       <c r="D85" t="s">
-        <v>379</v>
+        <v>977</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3964,13 +6356,13 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>678</v>
       </c>
       <c r="D86" t="s">
-        <v>380</v>
+        <v>978</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3978,13 +6370,13 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>679</v>
       </c>
       <c r="D87" t="s">
-        <v>381</v>
+        <v>979</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3992,13 +6384,13 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>680</v>
       </c>
       <c r="D88" t="s">
-        <v>382</v>
+        <v>980</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4006,13 +6398,13 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>681</v>
       </c>
       <c r="D89" t="s">
-        <v>383</v>
+        <v>981</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4020,13 +6412,13 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>384</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>682</v>
       </c>
       <c r="D90" t="s">
-        <v>384</v>
+        <v>982</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4034,13 +6426,13 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>683</v>
       </c>
       <c r="D91" t="s">
-        <v>385</v>
+        <v>983</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4048,13 +6440,13 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>386</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>684</v>
       </c>
       <c r="D92" t="s">
-        <v>386</v>
+        <v>984</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4062,13 +6454,13 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>685</v>
       </c>
       <c r="D93" t="s">
-        <v>387</v>
+        <v>985</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4076,13 +6468,13 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>388</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>686</v>
       </c>
       <c r="D94" t="s">
-        <v>388</v>
+        <v>986</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4090,13 +6482,13 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>687</v>
       </c>
       <c r="D95" t="s">
-        <v>389</v>
+        <v>987</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4104,13 +6496,13 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>390</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>688</v>
       </c>
       <c r="D96" t="s">
-        <v>390</v>
+        <v>988</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4118,13 +6510,13 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>689</v>
       </c>
       <c r="D97" t="s">
-        <v>391</v>
+        <v>989</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4132,13 +6524,13 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>690</v>
       </c>
       <c r="D98" t="s">
-        <v>392</v>
+        <v>990</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4146,13 +6538,13 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>393</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>691</v>
       </c>
       <c r="D99" t="s">
-        <v>393</v>
+        <v>991</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4160,13 +6552,13 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>394</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>692</v>
       </c>
       <c r="D100" t="s">
-        <v>394</v>
+        <v>992</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4174,13 +6566,13 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>395</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>693</v>
       </c>
       <c r="D101" t="s">
-        <v>395</v>
+        <v>993</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4188,13 +6580,13 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>623</v>
       </c>
       <c r="D102" t="s">
-        <v>325</v>
+        <v>923</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4202,13 +6594,13 @@
         <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>694</v>
       </c>
       <c r="D103" t="s">
-        <v>396</v>
+        <v>994</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4216,13 +6608,13 @@
         <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>397</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>695</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>995</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4230,13 +6622,13 @@
         <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>696</v>
       </c>
       <c r="D105" t="s">
-        <v>398</v>
+        <v>996</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4244,13 +6636,13 @@
         <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>697</v>
       </c>
       <c r="D106" t="s">
-        <v>399</v>
+        <v>997</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4258,13 +6650,13 @@
         <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>698</v>
       </c>
       <c r="D107" t="s">
-        <v>400</v>
+        <v>998</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4272,13 +6664,13 @@
         <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>699</v>
       </c>
       <c r="D108" t="s">
-        <v>401</v>
+        <v>999</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4286,13 +6678,13 @@
         <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>700</v>
       </c>
       <c r="D109" t="s">
-        <v>402</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4300,13 +6692,13 @@
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>701</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4314,13 +6706,13 @@
         <v>105</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
+        <v>702</v>
       </c>
       <c r="D111" t="s">
-        <v>404</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4328,13 +6720,13 @@
         <v>106</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>703</v>
       </c>
       <c r="D112" t="s">
-        <v>405</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4342,13 +6734,13 @@
         <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>704</v>
       </c>
       <c r="D113" t="s">
-        <v>406</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4356,13 +6748,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s">
-        <v>108</v>
+        <v>705</v>
       </c>
       <c r="D114" t="s">
-        <v>407</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4370,13 +6762,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
+        <v>706</v>
       </c>
       <c r="D115" t="s">
-        <v>408</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4384,13 +6776,13 @@
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>409</v>
       </c>
       <c r="C116" t="s">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="D116" t="s">
-        <v>409</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4398,13 +6790,13 @@
         <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>410</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>708</v>
       </c>
       <c r="D117" t="s">
-        <v>410</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4412,13 +6804,13 @@
         <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>709</v>
       </c>
       <c r="D118" t="s">
-        <v>411</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4426,13 +6818,13 @@
         <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
+        <v>710</v>
       </c>
       <c r="D119" t="s">
-        <v>412</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4440,13 +6832,13 @@
         <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
       <c r="C120" t="s">
-        <v>114</v>
+        <v>711</v>
       </c>
       <c r="D120" t="s">
-        <v>404</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4454,13 +6846,13 @@
         <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>413</v>
       </c>
       <c r="C121" t="s">
-        <v>115</v>
+        <v>712</v>
       </c>
       <c r="D121" t="s">
-        <v>413</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4468,13 +6860,13 @@
         <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>414</v>
       </c>
       <c r="C122" t="s">
-        <v>116</v>
+        <v>713</v>
       </c>
       <c r="D122" t="s">
-        <v>414</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4482,13 +6874,13 @@
         <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>415</v>
       </c>
       <c r="C123" t="s">
-        <v>117</v>
+        <v>714</v>
       </c>
       <c r="D123" t="s">
-        <v>415</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4496,13 +6888,13 @@
         <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
+        <v>715</v>
       </c>
       <c r="D124" t="s">
-        <v>416</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4510,13 +6902,13 @@
         <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>417</v>
       </c>
       <c r="C125" t="s">
-        <v>119</v>
+        <v>716</v>
       </c>
       <c r="D125" t="s">
-        <v>417</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4524,13 +6916,13 @@
         <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>717</v>
       </c>
       <c r="D126" t="s">
-        <v>418</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4538,13 +6930,13 @@
         <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>419</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>718</v>
       </c>
       <c r="D127" t="s">
-        <v>419</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4552,13 +6944,13 @@
         <v>122</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
+        <v>719</v>
       </c>
       <c r="D128" t="s">
-        <v>420</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4566,13 +6958,13 @@
         <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>421</v>
       </c>
       <c r="C129" t="s">
-        <v>123</v>
+        <v>720</v>
       </c>
       <c r="D129" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4594,13 +6986,13 @@
         <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="C131" t="s">
-        <v>124</v>
+        <v>721</v>
       </c>
       <c r="D131" t="s">
-        <v>422</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4608,13 +7000,13 @@
         <v>125</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="C132" t="s">
-        <v>125</v>
+        <v>722</v>
       </c>
       <c r="D132" t="s">
-        <v>423</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4622,13 +7014,13 @@
         <v>126</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>424</v>
       </c>
       <c r="C133" t="s">
-        <v>126</v>
+        <v>723</v>
       </c>
       <c r="D133" t="s">
-        <v>424</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4636,13 +7028,13 @@
         <v>31</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D134" t="s">
-        <v>330</v>
+        <v>928</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4650,13 +7042,13 @@
         <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>425</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>724</v>
       </c>
       <c r="D135" t="s">
-        <v>425</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4664,13 +7056,13 @@
         <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>128</v>
+        <v>714</v>
       </c>
       <c r="D136" t="s">
-        <v>415</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4678,13 +7070,13 @@
         <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>426</v>
       </c>
       <c r="C137" t="s">
-        <v>129</v>
+        <v>725</v>
       </c>
       <c r="D137" t="s">
-        <v>426</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4692,13 +7084,13 @@
         <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>427</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>726</v>
       </c>
       <c r="D138" t="s">
-        <v>427</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4706,13 +7098,13 @@
         <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="C139" t="s">
-        <v>131</v>
+        <v>727</v>
       </c>
       <c r="D139" t="s">
-        <v>428</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4720,13 +7112,13 @@
         <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="C140" t="s">
-        <v>132</v>
+        <v>728</v>
       </c>
       <c r="D140" t="s">
-        <v>429</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4734,13 +7126,13 @@
         <v>133</v>
       </c>
       <c r="B141" t="s">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="C141" t="s">
-        <v>133</v>
+        <v>729</v>
       </c>
       <c r="D141" t="s">
-        <v>430</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4748,13 +7140,13 @@
         <v>134</v>
       </c>
       <c r="B142" t="s">
-        <v>134</v>
+        <v>431</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>730</v>
       </c>
       <c r="D142" t="s">
-        <v>431</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4762,13 +7154,13 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D143" t="s">
-        <v>330</v>
+        <v>928</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4776,13 +7168,13 @@
         <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>432</v>
       </c>
       <c r="C144" t="s">
-        <v>135</v>
+        <v>731</v>
       </c>
       <c r="D144" t="s">
-        <v>432</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4790,13 +7182,13 @@
         <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>136</v>
+        <v>433</v>
       </c>
       <c r="C145" t="s">
-        <v>136</v>
+        <v>732</v>
       </c>
       <c r="D145" t="s">
-        <v>433</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4804,13 +7196,13 @@
         <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>137</v>
+        <v>434</v>
       </c>
       <c r="C146" t="s">
-        <v>137</v>
+        <v>733</v>
       </c>
       <c r="D146" t="s">
-        <v>434</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4818,13 +7210,13 @@
         <v>138</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>435</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
+        <v>734</v>
       </c>
       <c r="D147" t="s">
-        <v>435</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4832,13 +7224,13 @@
         <v>139</v>
       </c>
       <c r="B148" t="s">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="C148" t="s">
-        <v>139</v>
+        <v>735</v>
       </c>
       <c r="D148" t="s">
-        <v>436</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4846,13 +7238,13 @@
         <v>140</v>
       </c>
       <c r="B149" t="s">
-        <v>140</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>140</v>
+        <v>736</v>
       </c>
       <c r="D149" t="s">
-        <v>437</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4860,13 +7252,13 @@
         <v>141</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s">
-        <v>141</v>
+        <v>737</v>
       </c>
       <c r="D150" t="s">
-        <v>438</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4874,13 +7266,13 @@
         <v>142</v>
       </c>
       <c r="B151" t="s">
-        <v>142</v>
+        <v>439</v>
       </c>
       <c r="C151" t="s">
-        <v>142</v>
+        <v>738</v>
       </c>
       <c r="D151" t="s">
-        <v>439</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4888,13 +7280,13 @@
         <v>143</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>440</v>
       </c>
       <c r="C152" t="s">
-        <v>143</v>
+        <v>739</v>
       </c>
       <c r="D152" t="s">
-        <v>440</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4902,13 +7294,13 @@
         <v>144</v>
       </c>
       <c r="B153" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="C153" t="s">
-        <v>144</v>
+        <v>740</v>
       </c>
       <c r="D153" t="s">
-        <v>441</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4916,13 +7308,13 @@
         <v>145</v>
       </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>442</v>
       </c>
       <c r="C154" t="s">
-        <v>145</v>
+        <v>741</v>
       </c>
       <c r="D154" t="s">
-        <v>442</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4930,13 +7322,13 @@
         <v>146</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>443</v>
       </c>
       <c r="C155" t="s">
-        <v>146</v>
+        <v>742</v>
       </c>
       <c r="D155" t="s">
-        <v>443</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4944,13 +7336,13 @@
         <v>147</v>
       </c>
       <c r="B156" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C156" t="s">
-        <v>147</v>
+        <v>743</v>
       </c>
       <c r="D156" t="s">
-        <v>444</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4958,13 +7350,13 @@
         <v>148</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>744</v>
       </c>
       <c r="D157" t="s">
-        <v>445</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4972,13 +7364,13 @@
         <v>149</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>446</v>
       </c>
       <c r="C158" t="s">
-        <v>149</v>
+        <v>745</v>
       </c>
       <c r="D158" t="s">
-        <v>446</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4986,13 +7378,13 @@
         <v>150</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>746</v>
       </c>
       <c r="D159" t="s">
-        <v>447</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5000,13 +7392,13 @@
         <v>151</v>
       </c>
       <c r="B160" t="s">
-        <v>151</v>
+        <v>448</v>
       </c>
       <c r="C160" t="s">
-        <v>151</v>
+        <v>747</v>
       </c>
       <c r="D160" t="s">
-        <v>448</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5014,13 +7406,13 @@
         <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="C161" t="s">
-        <v>152</v>
+        <v>748</v>
       </c>
       <c r="D161" t="s">
-        <v>449</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5028,13 +7420,13 @@
         <v>153</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>450</v>
       </c>
       <c r="C162" t="s">
-        <v>153</v>
+        <v>749</v>
       </c>
       <c r="D162" t="s">
-        <v>450</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5042,13 +7434,13 @@
         <v>148</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="C163" t="s">
-        <v>148</v>
+        <v>744</v>
       </c>
       <c r="D163" t="s">
-        <v>445</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5056,13 +7448,13 @@
         <v>154</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>451</v>
       </c>
       <c r="C164" t="s">
-        <v>154</v>
+        <v>750</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5070,13 +7462,13 @@
         <v>155</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>452</v>
       </c>
       <c r="C165" t="s">
-        <v>155</v>
+        <v>751</v>
       </c>
       <c r="D165" t="s">
-        <v>452</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5084,13 +7476,13 @@
         <v>156</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="C166" t="s">
-        <v>156</v>
+        <v>752</v>
       </c>
       <c r="D166" t="s">
-        <v>453</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5098,13 +7490,13 @@
         <v>157</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>454</v>
       </c>
       <c r="C167" t="s">
-        <v>157</v>
+        <v>753</v>
       </c>
       <c r="D167" t="s">
-        <v>454</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5112,13 +7504,13 @@
         <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>623</v>
       </c>
       <c r="D168" t="s">
-        <v>325</v>
+        <v>923</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5126,13 +7518,13 @@
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>455</v>
       </c>
       <c r="C169" t="s">
-        <v>158</v>
+        <v>754</v>
       </c>
       <c r="D169" t="s">
-        <v>455</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5140,13 +7532,13 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>159</v>
+        <v>456</v>
       </c>
       <c r="C170" t="s">
-        <v>159</v>
+        <v>755</v>
       </c>
       <c r="D170" t="s">
-        <v>456</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5154,13 +7546,13 @@
         <v>156</v>
       </c>
       <c r="B171" t="s">
-        <v>156</v>
+        <v>457</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>752</v>
       </c>
       <c r="D171" t="s">
-        <v>457</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5168,13 +7560,13 @@
         <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>160</v>
+        <v>458</v>
       </c>
       <c r="C172" t="s">
-        <v>160</v>
+        <v>756</v>
       </c>
       <c r="D172" t="s">
-        <v>458</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5182,13 +7574,13 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>459</v>
       </c>
       <c r="C173" t="s">
-        <v>161</v>
+        <v>757</v>
       </c>
       <c r="D173" t="s">
-        <v>459</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5196,13 +7588,13 @@
         <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>162</v>
+        <v>460</v>
       </c>
       <c r="C174" t="s">
-        <v>162</v>
+        <v>758</v>
       </c>
       <c r="D174" t="s">
-        <v>460</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5210,13 +7602,13 @@
         <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>163</v>
+        <v>461</v>
       </c>
       <c r="C175" t="s">
-        <v>163</v>
+        <v>759</v>
       </c>
       <c r="D175" t="s">
-        <v>461</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5224,13 +7616,13 @@
         <v>26</v>
       </c>
       <c r="B176" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>623</v>
       </c>
       <c r="D176" t="s">
-        <v>325</v>
+        <v>923</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5238,13 +7630,13 @@
         <v>164</v>
       </c>
       <c r="B177" t="s">
-        <v>164</v>
+        <v>462</v>
       </c>
       <c r="C177" t="s">
-        <v>164</v>
+        <v>760</v>
       </c>
       <c r="D177" t="s">
-        <v>462</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5252,13 +7644,13 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C178" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="D178" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5266,13 +7658,13 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C179" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="D179" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5280,13 +7672,13 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C180" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="D180" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5294,13 +7686,13 @@
         <v>165</v>
       </c>
       <c r="B181" t="s">
-        <v>165</v>
+        <v>463</v>
       </c>
       <c r="C181" t="s">
-        <v>165</v>
+        <v>761</v>
       </c>
       <c r="D181" t="s">
-        <v>463</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5308,13 +7700,13 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C182" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="D182" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5322,13 +7714,13 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>603</v>
       </c>
       <c r="D183" t="s">
-        <v>305</v>
+        <v>903</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5336,13 +7728,13 @@
         <v>166</v>
       </c>
       <c r="B184" t="s">
-        <v>166</v>
+        <v>464</v>
       </c>
       <c r="C184" t="s">
-        <v>166</v>
+        <v>762</v>
       </c>
       <c r="D184" t="s">
-        <v>464</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5350,13 +7742,13 @@
         <v>167</v>
       </c>
       <c r="B185" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>763</v>
       </c>
       <c r="D185" t="s">
-        <v>465</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5364,13 +7756,13 @@
         <v>168</v>
       </c>
       <c r="B186" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="C186" t="s">
-        <v>168</v>
+        <v>764</v>
       </c>
       <c r="D186" t="s">
-        <v>466</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5378,13 +7770,13 @@
         <v>169</v>
       </c>
       <c r="B187" t="s">
-        <v>169</v>
+        <v>467</v>
       </c>
       <c r="C187" t="s">
-        <v>169</v>
+        <v>765</v>
       </c>
       <c r="D187" t="s">
-        <v>467</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5392,13 +7784,13 @@
         <v>170</v>
       </c>
       <c r="B188" t="s">
-        <v>170</v>
+        <v>468</v>
       </c>
       <c r="C188" t="s">
-        <v>170</v>
+        <v>766</v>
       </c>
       <c r="D188" t="s">
-        <v>468</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5406,13 +7798,13 @@
         <v>171</v>
       </c>
       <c r="B189" t="s">
-        <v>171</v>
+        <v>469</v>
       </c>
       <c r="C189" t="s">
-        <v>171</v>
+        <v>767</v>
       </c>
       <c r="D189" t="s">
-        <v>469</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5420,13 +7812,13 @@
         <v>172</v>
       </c>
       <c r="B190" t="s">
-        <v>172</v>
+        <v>470</v>
       </c>
       <c r="C190" t="s">
-        <v>172</v>
+        <v>768</v>
       </c>
       <c r="D190" t="s">
-        <v>470</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5434,13 +7826,13 @@
         <v>173</v>
       </c>
       <c r="B191" t="s">
-        <v>173</v>
+        <v>471</v>
       </c>
       <c r="C191" t="s">
-        <v>173</v>
+        <v>769</v>
       </c>
       <c r="D191" t="s">
-        <v>471</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5448,13 +7840,13 @@
         <v>174</v>
       </c>
       <c r="B192" t="s">
-        <v>174</v>
+        <v>472</v>
       </c>
       <c r="C192" t="s">
-        <v>174</v>
+        <v>770</v>
       </c>
       <c r="D192" t="s">
-        <v>472</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5462,13 +7854,13 @@
         <v>175</v>
       </c>
       <c r="B193" t="s">
-        <v>175</v>
+        <v>473</v>
       </c>
       <c r="C193" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
       <c r="D193" t="s">
-        <v>473</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5476,13 +7868,13 @@
         <v>176</v>
       </c>
       <c r="B194" t="s">
-        <v>176</v>
+        <v>474</v>
       </c>
       <c r="C194" t="s">
-        <v>176</v>
+        <v>772</v>
       </c>
       <c r="D194" t="s">
-        <v>474</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5490,13 +7882,13 @@
         <v>177</v>
       </c>
       <c r="B195" t="s">
-        <v>177</v>
+        <v>475</v>
       </c>
       <c r="C195" t="s">
-        <v>177</v>
+        <v>773</v>
       </c>
       <c r="D195" t="s">
-        <v>475</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5504,13 +7896,13 @@
         <v>178</v>
       </c>
       <c r="B196" t="s">
-        <v>178</v>
+        <v>476</v>
       </c>
       <c r="C196" t="s">
-        <v>178</v>
+        <v>774</v>
       </c>
       <c r="D196" t="s">
-        <v>476</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5518,13 +7910,13 @@
         <v>179</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
+        <v>477</v>
       </c>
       <c r="C197" t="s">
-        <v>179</v>
+        <v>775</v>
       </c>
       <c r="D197" t="s">
-        <v>477</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5532,13 +7924,13 @@
         <v>180</v>
       </c>
       <c r="B198" t="s">
-        <v>180</v>
+        <v>478</v>
       </c>
       <c r="C198" t="s">
-        <v>180</v>
+        <v>776</v>
       </c>
       <c r="D198" t="s">
-        <v>478</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5546,13 +7938,13 @@
         <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>181</v>
+        <v>479</v>
       </c>
       <c r="C199" t="s">
-        <v>181</v>
+        <v>777</v>
       </c>
       <c r="D199" t="s">
-        <v>479</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5560,13 +7952,13 @@
         <v>182</v>
       </c>
       <c r="B200" t="s">
-        <v>182</v>
+        <v>480</v>
       </c>
       <c r="C200" t="s">
-        <v>182</v>
+        <v>778</v>
       </c>
       <c r="D200" t="s">
-        <v>480</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5574,13 +7966,13 @@
         <v>183</v>
       </c>
       <c r="B201" t="s">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="C201" t="s">
-        <v>183</v>
+        <v>779</v>
       </c>
       <c r="D201" t="s">
-        <v>481</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5588,13 +7980,13 @@
         <v>184</v>
       </c>
       <c r="B202" t="s">
-        <v>184</v>
+        <v>482</v>
       </c>
       <c r="C202" t="s">
-        <v>184</v>
+        <v>780</v>
       </c>
       <c r="D202" t="s">
-        <v>482</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5602,13 +7994,13 @@
         <v>31</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D203" t="s">
-        <v>330</v>
+        <v>928</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5616,13 +8008,13 @@
         <v>185</v>
       </c>
       <c r="B204" t="s">
-        <v>185</v>
+        <v>483</v>
       </c>
       <c r="C204" t="s">
-        <v>185</v>
+        <v>781</v>
       </c>
       <c r="D204" t="s">
-        <v>483</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5630,13 +8022,13 @@
         <v>186</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>484</v>
       </c>
       <c r="C205" t="s">
-        <v>186</v>
+        <v>782</v>
       </c>
       <c r="D205" t="s">
-        <v>484</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5644,13 +8036,13 @@
         <v>187</v>
       </c>
       <c r="B206" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="C206" t="s">
-        <v>187</v>
+        <v>783</v>
       </c>
       <c r="D206" t="s">
-        <v>485</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5658,13 +8050,13 @@
         <v>188</v>
       </c>
       <c r="B207" t="s">
-        <v>188</v>
+        <v>485</v>
       </c>
       <c r="C207" t="s">
-        <v>188</v>
+        <v>784</v>
       </c>
       <c r="D207" t="s">
-        <v>486</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5672,13 +8064,13 @@
         <v>189</v>
       </c>
       <c r="B208" t="s">
-        <v>189</v>
+        <v>486</v>
       </c>
       <c r="C208" t="s">
-        <v>189</v>
+        <v>785</v>
       </c>
       <c r="D208" t="s">
-        <v>487</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5686,13 +8078,13 @@
         <v>190</v>
       </c>
       <c r="B209" t="s">
-        <v>190</v>
+        <v>487</v>
       </c>
       <c r="C209" t="s">
-        <v>190</v>
+        <v>786</v>
       </c>
       <c r="D209" t="s">
-        <v>488</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5700,13 +8092,13 @@
         <v>191</v>
       </c>
       <c r="B210" t="s">
-        <v>191</v>
+        <v>488</v>
       </c>
       <c r="C210" t="s">
-        <v>191</v>
+        <v>787</v>
       </c>
       <c r="D210" t="s">
-        <v>489</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5714,13 +8106,13 @@
         <v>31</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D211" t="s">
-        <v>330</v>
+        <v>928</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5728,13 +8120,13 @@
         <v>192</v>
       </c>
       <c r="B212" t="s">
-        <v>192</v>
+        <v>489</v>
       </c>
       <c r="C212" t="s">
-        <v>192</v>
+        <v>788</v>
       </c>
       <c r="D212" t="s">
-        <v>490</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5742,13 +8134,13 @@
         <v>193</v>
       </c>
       <c r="B213" t="s">
-        <v>193</v>
+        <v>490</v>
       </c>
       <c r="C213" t="s">
-        <v>193</v>
+        <v>789</v>
       </c>
       <c r="D213" t="s">
-        <v>491</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5756,13 +8148,13 @@
         <v>194</v>
       </c>
       <c r="B214" t="s">
-        <v>194</v>
+        <v>491</v>
       </c>
       <c r="C214" t="s">
-        <v>194</v>
+        <v>790</v>
       </c>
       <c r="D214" t="s">
-        <v>492</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5770,13 +8162,13 @@
         <v>195</v>
       </c>
       <c r="B215" t="s">
-        <v>195</v>
+        <v>492</v>
       </c>
       <c r="C215" t="s">
-        <v>195</v>
+        <v>791</v>
       </c>
       <c r="D215" t="s">
-        <v>493</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5784,13 +8176,13 @@
         <v>196</v>
       </c>
       <c r="B216" t="s">
-        <v>196</v>
+        <v>493</v>
       </c>
       <c r="C216" t="s">
-        <v>196</v>
+        <v>792</v>
       </c>
       <c r="D216" t="s">
-        <v>494</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5798,13 +8190,13 @@
         <v>197</v>
       </c>
       <c r="B217" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="C217" t="s">
-        <v>197</v>
+        <v>793</v>
       </c>
       <c r="D217" t="s">
-        <v>495</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5812,13 +8204,13 @@
         <v>198</v>
       </c>
       <c r="B218" t="s">
-        <v>198</v>
+        <v>495</v>
       </c>
       <c r="C218" t="s">
-        <v>198</v>
+        <v>794</v>
       </c>
       <c r="D218" t="s">
-        <v>496</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5826,13 +8218,13 @@
         <v>199</v>
       </c>
       <c r="B219" t="s">
-        <v>199</v>
+        <v>496</v>
       </c>
       <c r="C219" t="s">
-        <v>199</v>
+        <v>795</v>
       </c>
       <c r="D219" t="s">
-        <v>497</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5840,13 +8232,13 @@
         <v>200</v>
       </c>
       <c r="B220" t="s">
-        <v>200</v>
+        <v>497</v>
       </c>
       <c r="C220" t="s">
-        <v>200</v>
+        <v>796</v>
       </c>
       <c r="D220" t="s">
-        <v>498</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5854,13 +8246,13 @@
         <v>201</v>
       </c>
       <c r="B221" t="s">
-        <v>201</v>
+        <v>498</v>
       </c>
       <c r="C221" t="s">
-        <v>201</v>
+        <v>797</v>
       </c>
       <c r="D221" t="s">
-        <v>499</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5868,13 +8260,13 @@
         <v>202</v>
       </c>
       <c r="B222" t="s">
-        <v>202</v>
+        <v>499</v>
       </c>
       <c r="C222" t="s">
-        <v>202</v>
+        <v>798</v>
       </c>
       <c r="D222" t="s">
-        <v>500</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5882,13 +8274,13 @@
         <v>203</v>
       </c>
       <c r="B223" t="s">
-        <v>203</v>
+        <v>500</v>
       </c>
       <c r="C223" t="s">
-        <v>203</v>
+        <v>799</v>
       </c>
       <c r="D223" t="s">
-        <v>501</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5896,13 +8288,13 @@
         <v>204</v>
       </c>
       <c r="B224" t="s">
-        <v>204</v>
+        <v>501</v>
       </c>
       <c r="C224" t="s">
-        <v>204</v>
+        <v>800</v>
       </c>
       <c r="D224" t="s">
-        <v>502</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5910,13 +8302,13 @@
         <v>205</v>
       </c>
       <c r="B225" t="s">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="C225" t="s">
-        <v>205</v>
+        <v>801</v>
       </c>
       <c r="D225" t="s">
-        <v>503</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5924,13 +8316,13 @@
         <v>206</v>
       </c>
       <c r="B226" t="s">
-        <v>206</v>
+        <v>503</v>
       </c>
       <c r="C226" t="s">
-        <v>206</v>
+        <v>802</v>
       </c>
       <c r="D226" t="s">
-        <v>504</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5938,13 +8330,13 @@
         <v>207</v>
       </c>
       <c r="B227" t="s">
-        <v>207</v>
+        <v>504</v>
       </c>
       <c r="C227" t="s">
-        <v>207</v>
+        <v>803</v>
       </c>
       <c r="D227" t="s">
-        <v>485</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5952,13 +8344,13 @@
         <v>208</v>
       </c>
       <c r="B228" t="s">
-        <v>208</v>
+        <v>505</v>
       </c>
       <c r="C228" t="s">
-        <v>208</v>
+        <v>804</v>
       </c>
       <c r="D228" t="s">
-        <v>505</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5966,13 +8358,13 @@
         <v>209</v>
       </c>
       <c r="B229" t="s">
-        <v>209</v>
+        <v>506</v>
       </c>
       <c r="C229" t="s">
-        <v>209</v>
+        <v>805</v>
       </c>
       <c r="D229" t="s">
-        <v>506</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5980,13 +8372,13 @@
         <v>210</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>507</v>
       </c>
       <c r="C230" t="s">
-        <v>210</v>
+        <v>806</v>
       </c>
       <c r="D230" t="s">
-        <v>507</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5994,13 +8386,13 @@
         <v>211</v>
       </c>
       <c r="B231" t="s">
-        <v>211</v>
+        <v>508</v>
       </c>
       <c r="C231" t="s">
-        <v>211</v>
+        <v>807</v>
       </c>
       <c r="D231" t="s">
-        <v>508</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6008,13 +8400,13 @@
         <v>212</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>509</v>
       </c>
       <c r="C232" t="s">
-        <v>212</v>
+        <v>808</v>
       </c>
       <c r="D232" t="s">
-        <v>509</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6022,13 +8414,13 @@
         <v>213</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>510</v>
       </c>
       <c r="C233" t="s">
-        <v>213</v>
+        <v>809</v>
       </c>
       <c r="D233" t="s">
-        <v>510</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6036,13 +8428,13 @@
         <v>214</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>511</v>
       </c>
       <c r="C234" t="s">
-        <v>214</v>
+        <v>810</v>
       </c>
       <c r="D234" t="s">
-        <v>511</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6050,13 +8442,13 @@
         <v>215</v>
       </c>
       <c r="B235" t="s">
-        <v>215</v>
+        <v>512</v>
       </c>
       <c r="C235" t="s">
-        <v>215</v>
+        <v>811</v>
       </c>
       <c r="D235" t="s">
-        <v>512</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6064,13 +8456,13 @@
         <v>216</v>
       </c>
       <c r="B236" t="s">
-        <v>216</v>
+        <v>513</v>
       </c>
       <c r="C236" t="s">
-        <v>216</v>
+        <v>812</v>
       </c>
       <c r="D236" t="s">
-        <v>513</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6078,13 +8470,13 @@
         <v>217</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>514</v>
       </c>
       <c r="C237" t="s">
-        <v>217</v>
+        <v>813</v>
       </c>
       <c r="D237" t="s">
-        <v>397</v>
+        <v>995</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6092,13 +8484,13 @@
         <v>218</v>
       </c>
       <c r="B238" t="s">
-        <v>218</v>
+        <v>515</v>
       </c>
       <c r="C238" t="s">
-        <v>218</v>
+        <v>814</v>
       </c>
       <c r="D238" t="s">
-        <v>514</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6106,13 +8498,13 @@
         <v>219</v>
       </c>
       <c r="B239" t="s">
-        <v>219</v>
+        <v>516</v>
       </c>
       <c r="C239" t="s">
-        <v>219</v>
+        <v>815</v>
       </c>
       <c r="D239" t="s">
-        <v>515</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6120,13 +8512,13 @@
         <v>220</v>
       </c>
       <c r="B240" t="s">
-        <v>220</v>
+        <v>517</v>
       </c>
       <c r="C240" t="s">
-        <v>220</v>
+        <v>816</v>
       </c>
       <c r="D240" t="s">
-        <v>516</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6134,13 +8526,13 @@
         <v>221</v>
       </c>
       <c r="B241" t="s">
-        <v>221</v>
+        <v>518</v>
       </c>
       <c r="C241" t="s">
-        <v>221</v>
+        <v>817</v>
       </c>
       <c r="D241" t="s">
-        <v>517</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6148,13 +8540,13 @@
         <v>222</v>
       </c>
       <c r="B242" t="s">
-        <v>222</v>
+        <v>519</v>
       </c>
       <c r="C242" t="s">
-        <v>222</v>
+        <v>818</v>
       </c>
       <c r="D242" t="s">
-        <v>518</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6162,13 +8554,13 @@
         <v>223</v>
       </c>
       <c r="B243" t="s">
-        <v>223</v>
+        <v>520</v>
       </c>
       <c r="C243" t="s">
-        <v>223</v>
+        <v>819</v>
       </c>
       <c r="D243" t="s">
-        <v>519</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6176,13 +8568,13 @@
         <v>224</v>
       </c>
       <c r="B244" t="s">
-        <v>224</v>
+        <v>521</v>
       </c>
       <c r="C244" t="s">
-        <v>224</v>
+        <v>820</v>
       </c>
       <c r="D244" t="s">
-        <v>520</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6190,13 +8582,13 @@
         <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>225</v>
+        <v>522</v>
       </c>
       <c r="C245" t="s">
-        <v>225</v>
+        <v>821</v>
       </c>
       <c r="D245" t="s">
-        <v>521</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6204,13 +8596,13 @@
         <v>226</v>
       </c>
       <c r="B246" t="s">
-        <v>226</v>
+        <v>523</v>
       </c>
       <c r="C246" t="s">
-        <v>226</v>
+        <v>822</v>
       </c>
       <c r="D246" t="s">
-        <v>522</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6218,13 +8610,13 @@
         <v>227</v>
       </c>
       <c r="B247" t="s">
-        <v>227</v>
+        <v>524</v>
       </c>
       <c r="C247" t="s">
-        <v>227</v>
+        <v>803</v>
       </c>
       <c r="D247" t="s">
-        <v>313</v>
+        <v>911</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6232,13 +8624,13 @@
         <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>228</v>
+        <v>525</v>
       </c>
       <c r="C248" t="s">
-        <v>228</v>
+        <v>823</v>
       </c>
       <c r="D248" t="s">
-        <v>523</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6246,13 +8638,13 @@
         <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>229</v>
+        <v>526</v>
       </c>
       <c r="C249" t="s">
-        <v>229</v>
+        <v>824</v>
       </c>
       <c r="D249" t="s">
-        <v>524</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6260,13 +8652,13 @@
         <v>230</v>
       </c>
       <c r="B250" t="s">
-        <v>230</v>
+        <v>527</v>
       </c>
       <c r="C250" t="s">
-        <v>230</v>
+        <v>825</v>
       </c>
       <c r="D250" t="s">
-        <v>525</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6274,13 +8666,13 @@
         <v>231</v>
       </c>
       <c r="B251" t="s">
-        <v>231</v>
+        <v>528</v>
       </c>
       <c r="C251" t="s">
-        <v>231</v>
+        <v>826</v>
       </c>
       <c r="D251" t="s">
-        <v>526</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6288,13 +8680,13 @@
         <v>232</v>
       </c>
       <c r="B252" t="s">
-        <v>232</v>
+        <v>529</v>
       </c>
       <c r="C252" t="s">
-        <v>232</v>
+        <v>827</v>
       </c>
       <c r="D252" t="s">
-        <v>527</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6302,13 +8694,13 @@
         <v>233</v>
       </c>
       <c r="B253" t="s">
-        <v>233</v>
+        <v>528</v>
       </c>
       <c r="C253" t="s">
-        <v>233</v>
+        <v>828</v>
       </c>
       <c r="D253" t="s">
-        <v>528</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6316,13 +8708,13 @@
         <v>234</v>
       </c>
       <c r="B254" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="C254" t="s">
-        <v>234</v>
+        <v>829</v>
       </c>
       <c r="D254" t="s">
-        <v>529</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6330,13 +8722,13 @@
         <v>235</v>
       </c>
       <c r="B255" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="C255" t="s">
-        <v>235</v>
+        <v>830</v>
       </c>
       <c r="D255" t="s">
-        <v>530</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6344,13 +8736,13 @@
         <v>236</v>
       </c>
       <c r="B256" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="C256" t="s">
-        <v>236</v>
+        <v>831</v>
       </c>
       <c r="D256" t="s">
-        <v>531</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6358,13 +8750,13 @@
         <v>237</v>
       </c>
       <c r="B257" t="s">
-        <v>237</v>
+        <v>533</v>
       </c>
       <c r="C257" t="s">
-        <v>237</v>
+        <v>832</v>
       </c>
       <c r="D257" t="s">
-        <v>532</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6372,13 +8764,13 @@
         <v>238</v>
       </c>
       <c r="B258" t="s">
-        <v>238</v>
+        <v>534</v>
       </c>
       <c r="C258" t="s">
-        <v>238</v>
+        <v>833</v>
       </c>
       <c r="D258" t="s">
-        <v>533</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6386,13 +8778,13 @@
         <v>239</v>
       </c>
       <c r="B259" t="s">
-        <v>239</v>
+        <v>535</v>
       </c>
       <c r="C259" t="s">
-        <v>239</v>
+        <v>834</v>
       </c>
       <c r="D259" t="s">
-        <v>534</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6400,13 +8792,13 @@
         <v>240</v>
       </c>
       <c r="B260" t="s">
-        <v>240</v>
+        <v>536</v>
       </c>
       <c r="C260" t="s">
-        <v>240</v>
+        <v>835</v>
       </c>
       <c r="D260" t="s">
-        <v>535</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6414,13 +8806,13 @@
         <v>145</v>
       </c>
       <c r="B261" t="s">
-        <v>145</v>
+        <v>537</v>
       </c>
       <c r="C261" t="s">
-        <v>145</v>
+        <v>741</v>
       </c>
       <c r="D261" t="s">
-        <v>536</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6428,13 +8820,13 @@
         <v>241</v>
       </c>
       <c r="B262" t="s">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="C262" t="s">
-        <v>241</v>
+        <v>836</v>
       </c>
       <c r="D262" t="s">
-        <v>537</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6442,13 +8834,13 @@
         <v>242</v>
       </c>
       <c r="B263" t="s">
-        <v>242</v>
+        <v>539</v>
       </c>
       <c r="C263" t="s">
-        <v>242</v>
+        <v>837</v>
       </c>
       <c r="D263" t="s">
-        <v>538</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6456,13 +8848,13 @@
         <v>243</v>
       </c>
       <c r="B264" t="s">
-        <v>243</v>
+        <v>540</v>
       </c>
       <c r="C264" t="s">
-        <v>243</v>
+        <v>838</v>
       </c>
       <c r="D264" t="s">
-        <v>539</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6470,13 +8862,13 @@
         <v>217</v>
       </c>
       <c r="B265" t="s">
-        <v>217</v>
+        <v>514</v>
       </c>
       <c r="C265" t="s">
-        <v>217</v>
+        <v>839</v>
       </c>
       <c r="D265" t="s">
-        <v>397</v>
+        <v>995</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6484,13 +8876,13 @@
         <v>244</v>
       </c>
       <c r="B266" t="s">
-        <v>244</v>
+        <v>541</v>
       </c>
       <c r="C266" t="s">
-        <v>244</v>
+        <v>840</v>
       </c>
       <c r="D266" t="s">
-        <v>540</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6498,13 +8890,13 @@
         <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>245</v>
+        <v>542</v>
       </c>
       <c r="C267" t="s">
-        <v>245</v>
+        <v>841</v>
       </c>
       <c r="D267" t="s">
-        <v>541</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6512,13 +8904,13 @@
         <v>239</v>
       </c>
       <c r="B268" t="s">
-        <v>239</v>
+        <v>543</v>
       </c>
       <c r="C268" t="s">
-        <v>239</v>
+        <v>842</v>
       </c>
       <c r="D268" t="s">
-        <v>534</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6526,13 +8918,13 @@
         <v>246</v>
       </c>
       <c r="B269" t="s">
-        <v>246</v>
+        <v>544</v>
       </c>
       <c r="C269" t="s">
-        <v>246</v>
+        <v>843</v>
       </c>
       <c r="D269" t="s">
-        <v>542</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6540,13 +8932,13 @@
         <v>247</v>
       </c>
       <c r="B270" t="s">
-        <v>247</v>
+        <v>545</v>
       </c>
       <c r="C270" t="s">
-        <v>247</v>
+        <v>844</v>
       </c>
       <c r="D270" t="s">
-        <v>543</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6554,13 +8946,13 @@
         <v>248</v>
       </c>
       <c r="B271" t="s">
-        <v>248</v>
+        <v>546</v>
       </c>
       <c r="C271" t="s">
-        <v>248</v>
+        <v>845</v>
       </c>
       <c r="D271" t="s">
-        <v>544</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6568,13 +8960,13 @@
         <v>249</v>
       </c>
       <c r="B272" t="s">
-        <v>249</v>
+        <v>547</v>
       </c>
       <c r="C272" t="s">
-        <v>249</v>
+        <v>846</v>
       </c>
       <c r="D272" t="s">
-        <v>545</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6582,13 +8974,13 @@
         <v>250</v>
       </c>
       <c r="B273" t="s">
-        <v>250</v>
+        <v>548</v>
       </c>
       <c r="C273" t="s">
-        <v>250</v>
+        <v>847</v>
       </c>
       <c r="D273" t="s">
-        <v>546</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6596,13 +8988,13 @@
         <v>251</v>
       </c>
       <c r="B274" t="s">
-        <v>251</v>
+        <v>549</v>
       </c>
       <c r="C274" t="s">
-        <v>251</v>
+        <v>848</v>
       </c>
       <c r="D274" t="s">
-        <v>547</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6610,13 +9002,13 @@
         <v>252</v>
       </c>
       <c r="B275" t="s">
-        <v>252</v>
+        <v>550</v>
       </c>
       <c r="C275" t="s">
-        <v>252</v>
+        <v>849</v>
       </c>
       <c r="D275" t="s">
-        <v>548</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6624,13 +9016,13 @@
         <v>253</v>
       </c>
       <c r="B276" t="s">
-        <v>253</v>
+        <v>551</v>
       </c>
       <c r="C276" t="s">
-        <v>253</v>
+        <v>850</v>
       </c>
       <c r="D276" t="s">
-        <v>549</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6638,13 +9030,13 @@
         <v>254</v>
       </c>
       <c r="B277" t="s">
-        <v>254</v>
+        <v>552</v>
       </c>
       <c r="C277" t="s">
-        <v>254</v>
+        <v>851</v>
       </c>
       <c r="D277" t="s">
-        <v>550</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6652,13 +9044,13 @@
         <v>255</v>
       </c>
       <c r="B278" t="s">
-        <v>255</v>
+        <v>553</v>
       </c>
       <c r="C278" t="s">
-        <v>255</v>
+        <v>852</v>
       </c>
       <c r="D278" t="s">
-        <v>551</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6666,13 +9058,13 @@
         <v>256</v>
       </c>
       <c r="B279" t="s">
-        <v>256</v>
+        <v>554</v>
       </c>
       <c r="C279" t="s">
-        <v>256</v>
+        <v>853</v>
       </c>
       <c r="D279" t="s">
-        <v>552</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6680,13 +9072,13 @@
         <v>257</v>
       </c>
       <c r="B280" t="s">
-        <v>257</v>
+        <v>555</v>
       </c>
       <c r="C280" t="s">
-        <v>257</v>
+        <v>854</v>
       </c>
       <c r="D280" t="s">
-        <v>553</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6694,13 +9086,13 @@
         <v>258</v>
       </c>
       <c r="B281" t="s">
-        <v>258</v>
+        <v>556</v>
       </c>
       <c r="C281" t="s">
-        <v>258</v>
+        <v>855</v>
       </c>
       <c r="D281" t="s">
-        <v>554</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6708,13 +9100,13 @@
         <v>259</v>
       </c>
       <c r="B282" t="s">
-        <v>259</v>
+        <v>557</v>
       </c>
       <c r="C282" t="s">
-        <v>259</v>
+        <v>856</v>
       </c>
       <c r="D282" t="s">
-        <v>555</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6722,13 +9114,13 @@
         <v>260</v>
       </c>
       <c r="B283" t="s">
-        <v>260</v>
+        <v>558</v>
       </c>
       <c r="C283" t="s">
-        <v>260</v>
+        <v>857</v>
       </c>
       <c r="D283" t="s">
-        <v>556</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6736,13 +9128,13 @@
         <v>261</v>
       </c>
       <c r="B284" t="s">
-        <v>261</v>
+        <v>559</v>
       </c>
       <c r="C284" t="s">
-        <v>261</v>
+        <v>858</v>
       </c>
       <c r="D284" t="s">
-        <v>557</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6750,13 +9142,13 @@
         <v>262</v>
       </c>
       <c r="B285" t="s">
-        <v>262</v>
+        <v>560</v>
       </c>
       <c r="C285" t="s">
-        <v>262</v>
+        <v>859</v>
       </c>
       <c r="D285" t="s">
-        <v>558</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6764,13 +9156,13 @@
         <v>263</v>
       </c>
       <c r="B286" t="s">
-        <v>263</v>
+        <v>561</v>
       </c>
       <c r="C286" t="s">
-        <v>263</v>
+        <v>860</v>
       </c>
       <c r="D286" t="s">
-        <v>559</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6778,13 +9170,13 @@
         <v>264</v>
       </c>
       <c r="B287" t="s">
-        <v>264</v>
+        <v>562</v>
       </c>
       <c r="C287" t="s">
-        <v>264</v>
+        <v>861</v>
       </c>
       <c r="D287" t="s">
-        <v>560</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6792,13 +9184,13 @@
         <v>265</v>
       </c>
       <c r="B288" t="s">
-        <v>265</v>
+        <v>563</v>
       </c>
       <c r="C288" t="s">
-        <v>265</v>
+        <v>862</v>
       </c>
       <c r="D288" t="s">
-        <v>561</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6806,13 +9198,13 @@
         <v>266</v>
       </c>
       <c r="B289" t="s">
-        <v>266</v>
+        <v>564</v>
       </c>
       <c r="C289" t="s">
-        <v>266</v>
+        <v>863</v>
       </c>
       <c r="D289" t="s">
-        <v>562</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6820,13 +9212,13 @@
         <v>267</v>
       </c>
       <c r="B290" t="s">
-        <v>267</v>
+        <v>565</v>
       </c>
       <c r="C290" t="s">
-        <v>267</v>
+        <v>864</v>
       </c>
       <c r="D290" t="s">
-        <v>563</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6834,13 +9226,13 @@
         <v>268</v>
       </c>
       <c r="B291" t="s">
-        <v>268</v>
+        <v>566</v>
       </c>
       <c r="C291" t="s">
-        <v>268</v>
+        <v>865</v>
       </c>
       <c r="D291" t="s">
-        <v>564</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6848,13 +9240,13 @@
         <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="C292" t="s">
-        <v>26</v>
+        <v>623</v>
       </c>
       <c r="D292" t="s">
-        <v>325</v>
+        <v>923</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6862,13 +9254,13 @@
         <v>269</v>
       </c>
       <c r="B293" t="s">
-        <v>269</v>
+        <v>567</v>
       </c>
       <c r="C293" t="s">
-        <v>269</v>
+        <v>866</v>
       </c>
       <c r="D293" t="s">
-        <v>565</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6876,13 +9268,13 @@
         <v>270</v>
       </c>
       <c r="B294" t="s">
-        <v>270</v>
+        <v>568</v>
       </c>
       <c r="C294" t="s">
-        <v>270</v>
+        <v>867</v>
       </c>
       <c r="D294" t="s">
-        <v>566</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6890,13 +9282,13 @@
         <v>148</v>
       </c>
       <c r="B295" t="s">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="C295" t="s">
-        <v>148</v>
+        <v>744</v>
       </c>
       <c r="D295" t="s">
-        <v>445</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6904,13 +9296,13 @@
         <v>271</v>
       </c>
       <c r="B296" t="s">
-        <v>271</v>
+        <v>569</v>
       </c>
       <c r="C296" t="s">
-        <v>271</v>
+        <v>868</v>
       </c>
       <c r="D296" t="s">
-        <v>567</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6918,13 +9310,13 @@
         <v>272</v>
       </c>
       <c r="B297" t="s">
-        <v>272</v>
+        <v>570</v>
       </c>
       <c r="C297" t="s">
-        <v>272</v>
+        <v>869</v>
       </c>
       <c r="D297" t="s">
-        <v>568</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6932,13 +9324,13 @@
         <v>273</v>
       </c>
       <c r="B298" t="s">
-        <v>273</v>
+        <v>571</v>
       </c>
       <c r="C298" t="s">
-        <v>273</v>
+        <v>870</v>
       </c>
       <c r="D298" t="s">
-        <v>569</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6946,13 +9338,13 @@
         <v>274</v>
       </c>
       <c r="B299" t="s">
-        <v>274</v>
+        <v>572</v>
       </c>
       <c r="C299" t="s">
-        <v>274</v>
+        <v>871</v>
       </c>
       <c r="D299" t="s">
-        <v>570</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6960,13 +9352,13 @@
         <v>275</v>
       </c>
       <c r="B300" t="s">
-        <v>275</v>
+        <v>573</v>
       </c>
       <c r="C300" t="s">
-        <v>275</v>
+        <v>872</v>
       </c>
       <c r="D300" t="s">
-        <v>571</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6974,13 +9366,13 @@
         <v>276</v>
       </c>
       <c r="B301" t="s">
-        <v>276</v>
+        <v>574</v>
       </c>
       <c r="C301" t="s">
-        <v>276</v>
+        <v>873</v>
       </c>
       <c r="D301" t="s">
-        <v>572</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6988,13 +9380,13 @@
         <v>277</v>
       </c>
       <c r="B302" t="s">
-        <v>277</v>
+        <v>575</v>
       </c>
       <c r="C302" t="s">
-        <v>277</v>
+        <v>874</v>
       </c>
       <c r="D302" t="s">
-        <v>573</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7002,13 +9394,13 @@
         <v>278</v>
       </c>
       <c r="B303" t="s">
-        <v>278</v>
+        <v>576</v>
       </c>
       <c r="C303" t="s">
-        <v>278</v>
+        <v>875</v>
       </c>
       <c r="D303" t="s">
-        <v>574</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7016,13 +9408,13 @@
         <v>279</v>
       </c>
       <c r="B304" t="s">
-        <v>279</v>
+        <v>577</v>
       </c>
       <c r="C304" t="s">
-        <v>279</v>
+        <v>876</v>
       </c>
       <c r="D304" t="s">
-        <v>575</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7030,13 +9422,13 @@
         <v>280</v>
       </c>
       <c r="B305" t="s">
-        <v>280</v>
+        <v>578</v>
       </c>
       <c r="C305" t="s">
-        <v>280</v>
+        <v>877</v>
       </c>
       <c r="D305" t="s">
-        <v>576</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7044,13 +9436,13 @@
         <v>281</v>
       </c>
       <c r="B306" t="s">
-        <v>281</v>
+        <v>579</v>
       </c>
       <c r="C306" t="s">
-        <v>281</v>
+        <v>878</v>
       </c>
       <c r="D306" t="s">
-        <v>577</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7058,13 +9450,13 @@
         <v>282</v>
       </c>
       <c r="B307" t="s">
-        <v>282</v>
+        <v>580</v>
       </c>
       <c r="C307" t="s">
-        <v>282</v>
+        <v>879</v>
       </c>
       <c r="D307" t="s">
-        <v>578</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7072,13 +9464,13 @@
         <v>283</v>
       </c>
       <c r="B308" t="s">
-        <v>283</v>
+        <v>581</v>
       </c>
       <c r="C308" t="s">
-        <v>283</v>
+        <v>880</v>
       </c>
       <c r="D308" t="s">
-        <v>579</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7086,13 +9478,13 @@
         <v>284</v>
       </c>
       <c r="B309" t="s">
-        <v>284</v>
+        <v>582</v>
       </c>
       <c r="C309" t="s">
-        <v>284</v>
+        <v>881</v>
       </c>
       <c r="D309" t="s">
-        <v>580</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7100,13 +9492,13 @@
         <v>285</v>
       </c>
       <c r="B310" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="C310" t="s">
-        <v>285</v>
+        <v>882</v>
       </c>
       <c r="D310" t="s">
-        <v>581</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7114,13 +9506,13 @@
         <v>286</v>
       </c>
       <c r="B311" t="s">
-        <v>286</v>
+        <v>584</v>
       </c>
       <c r="C311" t="s">
-        <v>286</v>
+        <v>883</v>
       </c>
       <c r="D311" t="s">
-        <v>582</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7128,13 +9520,13 @@
         <v>287</v>
       </c>
       <c r="B312" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="C312" t="s">
-        <v>287</v>
+        <v>884</v>
       </c>
       <c r="D312" t="s">
-        <v>583</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7142,13 +9534,13 @@
         <v>288</v>
       </c>
       <c r="B313" t="s">
-        <v>288</v>
+        <v>586</v>
       </c>
       <c r="C313" t="s">
-        <v>288</v>
+        <v>885</v>
       </c>
       <c r="D313" t="s">
-        <v>584</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7156,13 +9548,13 @@
         <v>289</v>
       </c>
       <c r="B314" t="s">
-        <v>289</v>
+        <v>587</v>
       </c>
       <c r="C314" t="s">
-        <v>289</v>
+        <v>886</v>
       </c>
       <c r="D314" t="s">
-        <v>585</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7170,13 +9562,13 @@
         <v>290</v>
       </c>
       <c r="B315" t="s">
-        <v>290</v>
+        <v>588</v>
       </c>
       <c r="C315" t="s">
-        <v>290</v>
+        <v>887</v>
       </c>
       <c r="D315" t="s">
-        <v>586</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7184,13 +9576,13 @@
         <v>291</v>
       </c>
       <c r="B316" t="s">
-        <v>291</v>
+        <v>589</v>
       </c>
       <c r="C316" t="s">
-        <v>291</v>
+        <v>888</v>
       </c>
       <c r="D316" t="s">
-        <v>587</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7198,13 +9590,13 @@
         <v>292</v>
       </c>
       <c r="B317" t="s">
-        <v>292</v>
+        <v>590</v>
       </c>
       <c r="C317" t="s">
-        <v>292</v>
+        <v>889</v>
       </c>
       <c r="D317" t="s">
-        <v>588</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7212,13 +9604,13 @@
         <v>293</v>
       </c>
       <c r="B318" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="C318" t="s">
-        <v>293</v>
+        <v>890</v>
       </c>
       <c r="D318" t="s">
-        <v>485</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7226,13 +9618,13 @@
         <v>26</v>
       </c>
       <c r="B319" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="C319" t="s">
-        <v>26</v>
+        <v>623</v>
       </c>
       <c r="D319" t="s">
-        <v>325</v>
+        <v>923</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7240,13 +9632,13 @@
         <v>294</v>
       </c>
       <c r="B320" t="s">
-        <v>294</v>
+        <v>591</v>
       </c>
       <c r="C320" t="s">
-        <v>294</v>
+        <v>891</v>
       </c>
       <c r="D320" t="s">
-        <v>589</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7254,13 +9646,13 @@
         <v>295</v>
       </c>
       <c r="B321" t="s">
-        <v>295</v>
+        <v>592</v>
       </c>
       <c r="C321" t="s">
-        <v>295</v>
+        <v>892</v>
       </c>
       <c r="D321" t="s">
-        <v>590</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7268,13 +9660,13 @@
         <v>115</v>
       </c>
       <c r="B322" t="s">
-        <v>115</v>
+        <v>593</v>
       </c>
       <c r="C322" t="s">
-        <v>115</v>
+        <v>893</v>
       </c>
       <c r="D322" t="s">
-        <v>413</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7282,13 +9674,13 @@
         <v>296</v>
       </c>
       <c r="B323" t="s">
-        <v>296</v>
+        <v>594</v>
       </c>
       <c r="C323" t="s">
-        <v>296</v>
+        <v>894</v>
       </c>
       <c r="D323" t="s">
-        <v>591</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7296,13 +9688,13 @@
         <v>297</v>
       </c>
       <c r="B324" t="s">
-        <v>297</v>
+        <v>595</v>
       </c>
       <c r="C324" t="s">
-        <v>297</v>
+        <v>895</v>
       </c>
       <c r="D324" t="s">
-        <v>592</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7310,13 +9702,13 @@
         <v>298</v>
       </c>
       <c r="B325" t="s">
-        <v>298</v>
+        <v>596</v>
       </c>
       <c r="C325" t="s">
-        <v>298</v>
+        <v>896</v>
       </c>
       <c r="D325" t="s">
-        <v>593</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7324,13 +9716,13 @@
         <v>299</v>
       </c>
       <c r="B326" t="s">
-        <v>299</v>
+        <v>597</v>
       </c>
       <c r="C326" t="s">
-        <v>299</v>
+        <v>897</v>
       </c>
       <c r="D326" t="s">
-        <v>594</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7338,13 +9730,13 @@
         <v>300</v>
       </c>
       <c r="B327" t="s">
-        <v>300</v>
+        <v>598</v>
       </c>
       <c r="C327" t="s">
-        <v>300</v>
+        <v>898</v>
       </c>
       <c r="D327" t="s">
-        <v>595</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7352,13 +9744,13 @@
         <v>301</v>
       </c>
       <c r="B328" t="s">
-        <v>301</v>
+        <v>599</v>
       </c>
       <c r="C328" t="s">
-        <v>301</v>
+        <v>899</v>
       </c>
       <c r="D328" t="s">
-        <v>596</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7366,13 +9758,13 @@
         <v>302</v>
       </c>
       <c r="B329" t="s">
-        <v>302</v>
+        <v>600</v>
       </c>
       <c r="C329" t="s">
-        <v>302</v>
+        <v>900</v>
       </c>
       <c r="D329" t="s">
-        <v>597</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7380,13 +9772,13 @@
         <v>303</v>
       </c>
       <c r="B330" t="s">
-        <v>303</v>
+        <v>601</v>
       </c>
       <c r="C330" t="s">
-        <v>303</v>
+        <v>901</v>
       </c>
       <c r="D330" t="s">
-        <v>598</v>
+        <v>1196</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
@@ -4544,11 +4544,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]뭐가 아니야!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="히비스커스"]잘 들어.
+    <t xml:space="preserve">[name="라바"]아무것도 아니야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="히비스커스"]빨리!
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
@@ -3688,7 +3688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]어젯밤에 언니는 의료부의 정예 중 하나니까 절대로 지각할 수 없다고 했잖아. 잡아당겨서라도 깨어달라 더니.
+    <t xml:space="preserve">[name="라바"]어젯밤에 언니는 의료부의 정예 중 하나니까 절대로 지각할 수 없다고 했잖아. 잡아당겨서라도 깨워달라더니.
 </t>
   </si>
   <si>
@@ -4676,7 +4676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"](선생님은 라이타니아에서 잘 지내고 있는지 모르겠네. 선생님처럼 재능 있는 음악가는 이미 명성이 자자하겠지.)
+    <t xml:space="preserve">[name="라바"](선생님은 라이타니엔에서 잘 지내고 있는지 모르겠네. 선생님처럼 재능 있는 음악가는 이미 명성이 자자하겠지.)
 </t>
   </si>
   <si>
